--- a/docs/AllergieCategorieCodelijst-to-allergy-intolerance-category.xlsx
+++ b/docs/AllergieCategorieCodelijst-to-allergy-intolerance-category.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T13:17:30+02:00</t>
+    <t>2024-04-09T16:00:20+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -70,7 +70,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Nictiz (info@nictiz.nl(WORK))</t>
   </si>
   <si>
     <t>Description</t>
@@ -109,10 +109,13 @@
     <t>Relationship</t>
   </si>
   <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/allergy-intolerance-category</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>418471000</t>
@@ -471,77 +474,79 @@
       <c r="C2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>33</v>
+      </c>
       <c r="E2" t="s" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -576,7 +581,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>32</v>
